--- a/CleanResults/AddedlinksVsRobustness/Results.xlsx
+++ b/CleanResults/AddedlinksVsRobustness/Results.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H54"/>
+      <selection activeCell="D4" sqref="D4:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1180,18 @@
       <c r="A25" s="3">
         <v>21</v>
       </c>
+      <c r="B25">
+        <v>0.99658725935302395</v>
+      </c>
+      <c r="C25">
+        <v>0.99589069204575498</v>
+      </c>
+      <c r="D25">
+        <v>0.996568721619426</v>
+      </c>
+      <c r="E25">
+        <v>0.99650607378946698</v>
+      </c>
       <c r="F25">
         <v>0.99658725935302395</v>
       </c>
@@ -1197,6 +1209,18 @@
       <c r="A26" s="3">
         <v>22</v>
       </c>
+      <c r="B26">
+        <v>0.99661237757294696</v>
+      </c>
+      <c r="C26">
+        <v>0.99593539809556397</v>
+      </c>
+      <c r="D26">
+        <v>0.99664044862235202</v>
+      </c>
+      <c r="E26">
+        <v>0.99654417917110905</v>
+      </c>
       <c r="F26">
         <v>0.99661237757294696</v>
       </c>
@@ -1214,6 +1238,18 @@
       <c r="A27" s="3">
         <v>23</v>
       </c>
+      <c r="B27">
+        <v>0.99661991424251195</v>
+      </c>
+      <c r="C27">
+        <v>0.99588785757863496</v>
+      </c>
+      <c r="D27">
+        <v>0.99670260684823897</v>
+      </c>
+      <c r="E27">
+        <v>0.99658331526806898</v>
+      </c>
       <c r="F27">
         <v>0.99661991424251195</v>
       </c>
@@ -1231,6 +1267,18 @@
       <c r="A28" s="3">
         <v>24</v>
       </c>
+      <c r="B28">
+        <v>0.99667865832259195</v>
+      </c>
+      <c r="C28">
+        <v>0.99592370683897402</v>
+      </c>
+      <c r="D28">
+        <v>0.99673761517576498</v>
+      </c>
+      <c r="E28">
+        <v>0.99662348208034401</v>
+      </c>
       <c r="F28">
         <v>0.99667865832259195</v>
       </c>
@@ -1248,6 +1296,18 @@
       <c r="A29" s="3">
         <v>25</v>
       </c>
+      <c r="B29">
+        <v>0.996720382940538</v>
+      </c>
+      <c r="C29">
+        <v>0.99595012572346397</v>
+      </c>
+      <c r="D29">
+        <v>0.996776119680719</v>
+      </c>
+      <c r="E29">
+        <v>0.99666260427082698</v>
+      </c>
       <c r="F29">
         <v>0.996720382940538</v>
       </c>
@@ -1265,6 +1325,18 @@
       <c r="A30" s="3">
         <v>26</v>
       </c>
+      <c r="B30">
+        <v>0.99674085297646797</v>
+      </c>
+      <c r="C30">
+        <v>0.99602302510928797</v>
+      </c>
+      <c r="D30">
+        <v>0.99681020690868305</v>
+      </c>
+      <c r="E30">
+        <v>0.99669625496928904</v>
+      </c>
       <c r="F30">
         <v>0.99674085297646797</v>
       </c>
@@ -1282,6 +1354,18 @@
       <c r="A31" s="3">
         <v>27</v>
       </c>
+      <c r="B31">
+        <v>0.99694285317970499</v>
+      </c>
+      <c r="C31">
+        <v>0.99599643101806801</v>
+      </c>
+      <c r="D31">
+        <v>0.99683700486621696</v>
+      </c>
+      <c r="E31">
+        <v>0.99672983011170802</v>
+      </c>
       <c r="F31">
         <v>0.99694285317970499</v>
       </c>
@@ -1299,6 +1383,18 @@
       <c r="A32" s="3">
         <v>28</v>
       </c>
+      <c r="B32">
+        <v>0.99699267693871196</v>
+      </c>
+      <c r="C32">
+        <v>0.99601399980604499</v>
+      </c>
+      <c r="D32">
+        <v>0.99688874209003198</v>
+      </c>
+      <c r="E32">
+        <v>0.99676880587517303</v>
+      </c>
       <c r="F32">
         <v>0.99699267693871196</v>
       </c>
@@ -1316,6 +1412,18 @@
       <c r="A33" s="3">
         <v>29</v>
       </c>
+      <c r="B33">
+        <v>0.99698371179771195</v>
+      </c>
+      <c r="C33">
+        <v>0.996025246055387</v>
+      </c>
+      <c r="D33">
+        <v>0.99691372957420299</v>
+      </c>
+      <c r="E33">
+        <v>0.99680409887645305</v>
+      </c>
       <c r="F33">
         <v>0.99698371179771195</v>
       </c>
@@ -1333,6 +1441,18 @@
       <c r="A34" s="3">
         <v>30</v>
       </c>
+      <c r="B34">
+        <v>0.99700073496099295</v>
+      </c>
+      <c r="C34">
+        <v>0.996066857505162</v>
+      </c>
+      <c r="D34">
+        <v>0.99696767681228804</v>
+      </c>
+      <c r="E34">
+        <v>0.99684484373708004</v>
+      </c>
       <c r="F34">
         <v>0.99700073496099295</v>
       </c>
@@ -1350,6 +1470,18 @@
       <c r="A35" s="3">
         <v>31</v>
       </c>
+      <c r="B35">
+        <v>0.99704837527734103</v>
+      </c>
+      <c r="C35">
+        <v>0.99610583081454296</v>
+      </c>
+      <c r="D35">
+        <v>0.99709948224774203</v>
+      </c>
+      <c r="E35">
+        <v>0.99688454657873105</v>
+      </c>
       <c r="F35">
         <v>0.99704837527734103</v>
       </c>
@@ -1367,6 +1499,18 @@
       <c r="A36" s="3">
         <v>32</v>
       </c>
+      <c r="B36">
+        <v>0.99708926440836598</v>
+      </c>
+      <c r="C36">
+        <v>0.99610908002187404</v>
+      </c>
+      <c r="D36">
+        <v>0.99714867748664004</v>
+      </c>
+      <c r="E36">
+        <v>0.99689989360258202</v>
+      </c>
       <c r="F36">
         <v>0.99708926440836598</v>
       </c>
@@ -1384,6 +1528,18 @@
       <c r="A37" s="3">
         <v>33</v>
       </c>
+      <c r="B37">
+        <v>0.99712520684953398</v>
+      </c>
+      <c r="C37">
+        <v>0.99619732308507103</v>
+      </c>
+      <c r="D37">
+        <v>0.997199885223222</v>
+      </c>
+      <c r="E37">
+        <v>0.99691292724316605</v>
+      </c>
       <c r="F37">
         <v>0.99712520684953398</v>
       </c>
@@ -1401,6 +1557,18 @@
       <c r="A38" s="3">
         <v>34</v>
       </c>
+      <c r="B38">
+        <v>0.99711753835732597</v>
+      </c>
+      <c r="C38">
+        <v>0.99622026958930998</v>
+      </c>
+      <c r="D38">
+        <v>0.99724132243302699</v>
+      </c>
+      <c r="E38">
+        <v>0.99694020951905704</v>
+      </c>
       <c r="F38">
         <v>0.99711753835732597</v>
       </c>
@@ -1418,6 +1586,18 @@
       <c r="A39" s="3">
         <v>35</v>
       </c>
+      <c r="B39">
+        <v>0.99715960953885296</v>
+      </c>
+      <c r="C39">
+        <v>0.99620788709903696</v>
+      </c>
+      <c r="D39">
+        <v>0.99725481089719503</v>
+      </c>
+      <c r="E39">
+        <v>0.99696852251026502</v>
+      </c>
       <c r="F39">
         <v>0.99715960953885296</v>
       </c>
@@ -1435,6 +1615,18 @@
       <c r="A40" s="3">
         <v>36</v>
       </c>
+      <c r="B40">
+        <v>0.99719726991324797</v>
+      </c>
+      <c r="C40">
+        <v>0.99628777980647998</v>
+      </c>
+      <c r="D40">
+        <v>0.99735579563933696</v>
+      </c>
+      <c r="E40">
+        <v>0.99699786621678799</v>
+      </c>
       <c r="F40">
         <v>0.99719726991324797</v>
       </c>
@@ -1452,6 +1644,18 @@
       <c r="A41" s="3">
         <v>37</v>
       </c>
+      <c r="B41">
+        <v>0.99723274533477801</v>
+      </c>
+      <c r="C41">
+        <v>0.99633012748148098</v>
+      </c>
+      <c r="D41">
+        <v>0.99738055162157602</v>
+      </c>
+      <c r="E41">
+        <v>0.99702824063862805</v>
+      </c>
       <c r="F41">
         <v>0.99723274533477801</v>
       </c>
@@ -1469,6 +1673,18 @@
       <c r="A42" s="3">
         <v>38</v>
       </c>
+      <c r="B42">
+        <v>0.99724762935476396</v>
+      </c>
+      <c r="C42">
+        <v>0.99637175365576103</v>
+      </c>
+      <c r="D42">
+        <v>0.99738428101136001</v>
+      </c>
+      <c r="E42">
+        <v>0.99705964577578499</v>
+      </c>
       <c r="F42">
         <v>0.99724762935476396</v>
       </c>
@@ -1486,6 +1702,18 @@
       <c r="A43" s="3">
         <v>39</v>
       </c>
+      <c r="B43">
+        <v>0.99725551759904696</v>
+      </c>
+      <c r="C43">
+        <v>0.99634234145798195</v>
+      </c>
+      <c r="D43">
+        <v>0.99741124566927697</v>
+      </c>
+      <c r="E43">
+        <v>0.99709208162825802</v>
+      </c>
       <c r="F43">
         <v>0.99725551759904696</v>
       </c>
@@ -1503,6 +1731,18 @@
       <c r="A44" s="3">
         <v>40</v>
       </c>
+      <c r="B44">
+        <v>0.99742890206061996</v>
+      </c>
+      <c r="C44">
+        <v>0.99642317653371504</v>
+      </c>
+      <c r="D44">
+        <v>0.99745341010599897</v>
+      </c>
+      <c r="E44">
+        <v>0.99720301815616996</v>
+      </c>
       <c r="F44">
         <v>0.99742890206061996</v>
       </c>
@@ -1520,6 +1760,18 @@
       <c r="A45" s="3">
         <v>41</v>
       </c>
+      <c r="B45">
+        <v>0.99744039453639799</v>
+      </c>
+      <c r="C45">
+        <v>0.99642975593315197</v>
+      </c>
+      <c r="D45">
+        <v>0.99748263348803601</v>
+      </c>
+      <c r="E45">
+        <v>0.99722175289723003</v>
+      </c>
       <c r="F45">
         <v>0.99744039453639799</v>
       </c>
@@ -1537,6 +1789,18 @@
       <c r="A46" s="3">
         <v>42</v>
       </c>
+      <c r="B46">
+        <v>0.99745452024440096</v>
+      </c>
+      <c r="C46">
+        <v>0.99643180263928</v>
+      </c>
+      <c r="D46">
+        <v>0.99749035403657305</v>
+      </c>
+      <c r="E46">
+        <v>0.99728328927880305</v>
+      </c>
       <c r="F46">
         <v>0.99745452024440096</v>
       </c>
@@ -1554,6 +1818,18 @@
       <c r="A47" s="3">
         <v>43</v>
       </c>
+      <c r="B47">
+        <v>0.99746230459912399</v>
+      </c>
+      <c r="C47">
+        <v>0.99655619525346895</v>
+      </c>
+      <c r="D47">
+        <v>0.99749938670206895</v>
+      </c>
+      <c r="E47">
+        <v>0.997315567028768</v>
+      </c>
       <c r="F47">
         <v>0.99746230459912399</v>
       </c>
@@ -1571,6 +1847,18 @@
       <c r="A48" s="3">
         <v>44</v>
       </c>
+      <c r="B48">
+        <v>0.99746346292681298</v>
+      </c>
+      <c r="C48">
+        <v>0.99652310192955895</v>
+      </c>
+      <c r="D48">
+        <v>0.99751377172495703</v>
+      </c>
+      <c r="E48">
+        <v>0.997326822276418</v>
+      </c>
       <c r="F48">
         <v>0.99746346292681298</v>
       </c>
@@ -1588,6 +1876,18 @@
       <c r="A49" s="3">
         <v>45</v>
       </c>
+      <c r="B49">
+        <v>0.99750197895852699</v>
+      </c>
+      <c r="C49">
+        <v>0.99656554776792405</v>
+      </c>
+      <c r="D49">
+        <v>0.99754943038476596</v>
+      </c>
+      <c r="E49">
+        <v>0.99732900760111498</v>
+      </c>
       <c r="F49">
         <v>0.99750197895852699</v>
       </c>
@@ -1605,6 +1905,18 @@
       <c r="A50" s="3">
         <v>46</v>
       </c>
+      <c r="B50">
+        <v>0.99751057234297102</v>
+      </c>
+      <c r="C50">
+        <v>0.99656516493080605</v>
+      </c>
+      <c r="D50">
+        <v>0.99756577785689604</v>
+      </c>
+      <c r="E50">
+        <v>0.99739968685886904</v>
+      </c>
       <c r="F50">
         <v>0.99751057234297102</v>
       </c>
@@ -1622,6 +1934,18 @@
       <c r="A51" s="3">
         <v>47</v>
       </c>
+      <c r="B51">
+        <v>0.997552290954417</v>
+      </c>
+      <c r="C51">
+        <v>0.996689229515756</v>
+      </c>
+      <c r="D51">
+        <v>0.99760743325708601</v>
+      </c>
+      <c r="E51">
+        <v>0.99743465636724604</v>
+      </c>
       <c r="F51">
         <v>0.997552290954417</v>
       </c>
@@ -1639,6 +1963,18 @@
       <c r="A52" s="3">
         <v>48</v>
       </c>
+      <c r="B52">
+        <v>0.99758592417682601</v>
+      </c>
+      <c r="C52">
+        <v>0.99669495980209799</v>
+      </c>
+      <c r="D52">
+        <v>0.99761046895910099</v>
+      </c>
+      <c r="E52">
+        <v>0.997465352943397</v>
+      </c>
       <c r="F52">
         <v>0.99758592417682601</v>
       </c>
@@ -1656,6 +1992,18 @@
       <c r="A53" s="3">
         <v>49</v>
       </c>
+      <c r="B53">
+        <v>0.99760436498268201</v>
+      </c>
+      <c r="C53">
+        <v>0.99669088602251499</v>
+      </c>
+      <c r="D53">
+        <v>0.99762820217071202</v>
+      </c>
+      <c r="E53">
+        <v>0.99746621187282802</v>
+      </c>
       <c r="F53">
         <v>0.99760436498268201</v>
       </c>
@@ -1672,6 +2020,18 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>50</v>
+      </c>
+      <c r="B54">
+        <v>0.99768105838250498</v>
+      </c>
+      <c r="C54">
+        <v>0.99676716795423903</v>
+      </c>
+      <c r="D54">
+        <v>0.99763178022531096</v>
+      </c>
+      <c r="E54">
+        <v>0.99748149263640795</v>
       </c>
       <c r="F54">
         <v>0.99768105838250498</v>

--- a/CleanResults/AddedlinksVsRobustness/Results.xlsx
+++ b/CleanResults/AddedlinksVsRobustness/Results.xlsx
@@ -23,13 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
-  <si>
-    <t>Betweenness Attack</t>
-  </si>
-  <si>
-    <t>Degree Attack</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Random</t>
   </si>
@@ -47,6 +41,18 @@
   </si>
   <si>
     <t>Robustness</t>
+  </si>
+  <si>
+    <t>Betweenness Attack - All Nodes</t>
+  </si>
+  <si>
+    <t>Degree Attack - All Nodes</t>
+  </si>
+  <si>
+    <t>Betweenness Attack - 10 attacked ndoes</t>
+  </si>
+  <si>
+    <t>Degree Attack - 10 attacked nodes</t>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,71 +509,120 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="L3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -595,8 +650,32 @@
       <c r="I4">
         <v>0.99200727737184102</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0.93949513575363897</v>
+      </c>
+      <c r="K4">
+        <v>0.93949513575363897</v>
+      </c>
+      <c r="L4">
+        <v>0.93949513575363897</v>
+      </c>
+      <c r="M4">
+        <v>0.93949513575363897</v>
+      </c>
+      <c r="N4">
+        <v>0.94388480521288198</v>
+      </c>
+      <c r="O4">
+        <v>0.94388480521288198</v>
+      </c>
+      <c r="P4">
+        <v>0.94388480521288198</v>
+      </c>
+      <c r="Q4">
+        <v>0.94388480521288198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -624,8 +703,32 @@
       <c r="I5">
         <v>0.99249620209035705</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.95923125143827104</v>
+      </c>
+      <c r="K5">
+        <v>0.94717040626749904</v>
+      </c>
+      <c r="L5">
+        <v>0.954721533820174</v>
+      </c>
+      <c r="M5">
+        <v>0.95962984900987403</v>
+      </c>
+      <c r="N5">
+        <v>0.95735770925860697</v>
+      </c>
+      <c r="O5">
+        <v>0.95238450370948802</v>
+      </c>
+      <c r="P5">
+        <v>0.95474408513678799</v>
+      </c>
+      <c r="Q5">
+        <v>0.94600837994777398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -653,8 +756,32 @@
       <c r="I6">
         <v>0.99333442710831299</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.965188368744337</v>
+      </c>
+      <c r="K6">
+        <v>0.95724289052984102</v>
+      </c>
+      <c r="L6">
+        <v>0.96042571648786901</v>
+      </c>
+      <c r="M6">
+        <v>0.96325706171562697</v>
+      </c>
+      <c r="N6">
+        <v>0.961011059132581</v>
+      </c>
+      <c r="O6">
+        <v>0.95640136112770502</v>
+      </c>
+      <c r="P6">
+        <v>0.96019090772028304</v>
+      </c>
+      <c r="Q6">
+        <v>0.954467794196458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -682,8 +809,32 @@
       <c r="I7">
         <v>0.99365186164930996</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0.96683716076332304</v>
+      </c>
+      <c r="K7">
+        <v>0.96486229401631796</v>
+      </c>
+      <c r="L7">
+        <v>0.96011803440838706</v>
+      </c>
+      <c r="M7">
+        <v>0.96606552790071698</v>
+      </c>
+      <c r="N7">
+        <v>0.96378268929512201</v>
+      </c>
+      <c r="O7">
+        <v>0.96360396463182996</v>
+      </c>
+      <c r="P7">
+        <v>0.95979668027750897</v>
+      </c>
+      <c r="Q7">
+        <v>0.95765294352570096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -711,8 +862,32 @@
       <c r="I8">
         <v>0.99456315203555401</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.96756007467114702</v>
+      </c>
+      <c r="K8">
+        <v>0.96769194315162599</v>
+      </c>
+      <c r="L8">
+        <v>0.96081881962834403</v>
+      </c>
+      <c r="M8">
+        <v>0.96763726670498396</v>
+      </c>
+      <c r="N8">
+        <v>0.96450560320294598</v>
+      </c>
+      <c r="O8">
+        <v>0.96510685113239703</v>
+      </c>
+      <c r="P8">
+        <v>0.96048218473388602</v>
+      </c>
+      <c r="Q8">
+        <v>0.96254685999197398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -740,8 +915,32 @@
       <c r="I9">
         <v>0.99521564949857999</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.96748906617713304</v>
+      </c>
+      <c r="K9">
+        <v>0.96793877859017496</v>
+      </c>
+      <c r="L9">
+        <v>0.96203023127265597</v>
+      </c>
+      <c r="M9">
+        <v>0.96891748434574598</v>
+      </c>
+      <c r="N9">
+        <v>0.96443470923285601</v>
+      </c>
+      <c r="O9">
+        <v>0.96532757511626199</v>
+      </c>
+      <c r="P9">
+        <v>0.96162761572470901</v>
+      </c>
+      <c r="Q9">
+        <v>0.97008119265695003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -769,8 +968,32 @@
       <c r="I10">
         <v>0.99533708494144402</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0.97172938608535597</v>
+      </c>
+      <c r="K10">
+        <v>0.96840662111052001</v>
+      </c>
+      <c r="L10">
+        <v>0.96640259280333396</v>
+      </c>
+      <c r="M10">
+        <v>0.97039423316324902</v>
+      </c>
+      <c r="N10">
+        <v>0.97008047886440096</v>
+      </c>
+      <c r="O10">
+        <v>0.96730501514187595</v>
+      </c>
+      <c r="P10">
+        <v>0.96577227543523103</v>
+      </c>
+      <c r="Q10">
+        <v>0.97109104528399504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -798,8 +1021,32 @@
       <c r="I11">
         <v>0.99560226184406597</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0.97086347321263999</v>
+      </c>
+      <c r="K11">
+        <v>0.96784156091051499</v>
+      </c>
+      <c r="L11">
+        <v>0.966403791529022</v>
+      </c>
+      <c r="M11">
+        <v>0.97139427317225502</v>
+      </c>
+      <c r="N11">
+        <v>0.97049573391787503</v>
+      </c>
+      <c r="O11">
+        <v>0.96684418183799703</v>
+      </c>
+      <c r="P11">
+        <v>0.96759359693651503</v>
+      </c>
+      <c r="Q11">
+        <v>0.97420195336398097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -827,8 +1074,32 @@
       <c r="I12">
         <v>0.99575905653131902</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.97121080654080105</v>
+      </c>
+      <c r="K12">
+        <v>0.96406176080727402</v>
+      </c>
+      <c r="L12">
+        <v>0.96772839199555205</v>
+      </c>
+      <c r="M12">
+        <v>0.97234235204086605</v>
+      </c>
+      <c r="N12">
+        <v>0.97083594445289101</v>
+      </c>
+      <c r="O12">
+        <v>0.96421507562045194</v>
+      </c>
+      <c r="P12">
+        <v>0.96892541241025998</v>
+      </c>
+      <c r="Q12">
+        <v>0.97529755025889697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -856,8 +1127,32 @@
       <c r="I13">
         <v>0.99584814387380705</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0.97184389072298705</v>
+      </c>
+      <c r="K13">
+        <v>0.96582105816490105</v>
+      </c>
+      <c r="L13">
+        <v>0.96754422883056002</v>
+      </c>
+      <c r="M13">
+        <v>0.973658441125971</v>
+      </c>
+      <c r="N13">
+        <v>0.97139291856360399</v>
+      </c>
+      <c r="O13">
+        <v>0.96589843246150897</v>
+      </c>
+      <c r="P13">
+        <v>0.96754422883056002</v>
+      </c>
+      <c r="Q13">
+        <v>0.97594928731910702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -885,8 +1180,32 @@
       <c r="I14">
         <v>0.99593886942897303</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0.97306544957596097</v>
+      </c>
+      <c r="K14">
+        <v>0.96776742278797301</v>
+      </c>
+      <c r="L14">
+        <v>0.96998024919948</v>
+      </c>
+      <c r="M14">
+        <v>0.98089749544758598</v>
+      </c>
+      <c r="N14">
+        <v>0.97179091951819097</v>
+      </c>
+      <c r="O14">
+        <v>0.96785173396226498</v>
+      </c>
+      <c r="P14">
+        <v>0.96998024919948</v>
+      </c>
+      <c r="Q14">
+        <v>0.97661079163398201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -914,8 +1233,32 @@
       <c r="I15">
         <v>0.99603581015516496</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0.97354799984824503</v>
+      </c>
+      <c r="K15">
+        <v>0.969710853850142</v>
+      </c>
+      <c r="L15">
+        <v>0.970225319413628</v>
+      </c>
+      <c r="M15">
+        <v>0.98153036580680098</v>
+      </c>
+      <c r="N15">
+        <v>0.97221786024506895</v>
+      </c>
+      <c r="O15">
+        <v>0.96957487156357203</v>
+      </c>
+      <c r="P15">
+        <v>0.970225319413628</v>
+      </c>
+      <c r="Q15">
+        <v>0.977173251346101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -943,8 +1286,32 @@
       <c r="I16">
         <v>0.99608916617064203</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.974165358107841</v>
+      </c>
+      <c r="K16">
+        <v>0.97054517113895</v>
+      </c>
+      <c r="L16">
+        <v>0.97048318021106905</v>
+      </c>
+      <c r="M16">
+        <v>0.98234270036063198</v>
+      </c>
+      <c r="N16">
+        <v>0.97348937097854604</v>
+      </c>
+      <c r="O16">
+        <v>0.97041610936950495</v>
+      </c>
+      <c r="P16">
+        <v>0.97048318021106905</v>
+      </c>
+      <c r="Q16">
+        <v>0.97773347337973004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -972,8 +1339,32 @@
       <c r="I17">
         <v>0.99618401384341204</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0.97588765068047401</v>
+      </c>
+      <c r="K17">
+        <v>0.97057437473958197</v>
+      </c>
+      <c r="L17">
+        <v>0.97275926574627603</v>
+      </c>
+      <c r="M17">
+        <v>0.98312740192764703</v>
+      </c>
+      <c r="N17">
+        <v>0.97424965515255901</v>
+      </c>
+      <c r="O17">
+        <v>0.97044531297013703</v>
+      </c>
+      <c r="P17">
+        <v>0.97275926574627603</v>
+      </c>
+      <c r="Q17">
+        <v>0.97838441769641404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1001,8 +1392,32 @@
       <c r="I18">
         <v>0.99621965619414399</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0.97590887999514697</v>
+      </c>
+      <c r="K18">
+        <v>0.97177123347345495</v>
+      </c>
+      <c r="L18">
+        <v>0.97471485110322198</v>
+      </c>
+      <c r="M18">
+        <v>0.98411875133272597</v>
+      </c>
+      <c r="N18">
+        <v>0.97502492708738497</v>
+      </c>
+      <c r="O18">
+        <v>0.97157926683591</v>
+      </c>
+      <c r="P18">
+        <v>0.97471485110322198</v>
+      </c>
+      <c r="Q18">
+        <v>0.97893558415976301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1030,8 +1445,32 @@
       <c r="I19">
         <v>0.99636320866082595</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0.97718683392925498</v>
+      </c>
+      <c r="K19">
+        <v>0.97330841905980503</v>
+      </c>
+      <c r="L19">
+        <v>0.97421141726181504</v>
+      </c>
+      <c r="M19">
+        <v>0.98470455539100998</v>
+      </c>
+      <c r="N19">
+        <v>0.97629507703409601</v>
+      </c>
+      <c r="O19">
+        <v>0.97311348298051603</v>
+      </c>
+      <c r="P19">
+        <v>0.97419063934988104</v>
+      </c>
+      <c r="Q19">
+        <v>0.97964532312553199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1059,8 +1498,32 @@
       <c r="I20">
         <v>0.99644161984514301</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0.97753873597256002</v>
+      </c>
+      <c r="K20">
+        <v>0.97386009401624196</v>
+      </c>
+      <c r="L20">
+        <v>0.97548568406329295</v>
+      </c>
+      <c r="M20">
+        <v>0.98531956304992596</v>
+      </c>
+      <c r="N20">
+        <v>0.97708405219691197</v>
+      </c>
+      <c r="O20">
+        <v>0.97362815034892403</v>
+      </c>
+      <c r="P20">
+        <v>0.97546490615135895</v>
+      </c>
+      <c r="Q20">
+        <v>0.98033174754881502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1088,8 +1551,32 @@
       <c r="I21">
         <v>0.99648043200300296</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0.97829903725079603</v>
+      </c>
+      <c r="K21">
+        <v>0.974796498881218</v>
+      </c>
+      <c r="L21">
+        <v>0.97656943379577399</v>
+      </c>
+      <c r="M21">
+        <v>0.985892942692569</v>
+      </c>
+      <c r="N21">
+        <v>0.97785015329387304</v>
+      </c>
+      <c r="O21">
+        <v>0.97456455521390095</v>
+      </c>
+      <c r="P21">
+        <v>0.97676655400990098</v>
+      </c>
+      <c r="Q21">
+        <v>0.98067201448772101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1117,8 +1604,32 @@
       <c r="I22">
         <v>0.99651483662584295</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0.97777418898012203</v>
+      </c>
+      <c r="K22">
+        <v>0.97546211787707904</v>
+      </c>
+      <c r="L22">
+        <v>0.97713915685312802</v>
+      </c>
+      <c r="M22">
+        <v>0.98627976360660097</v>
+      </c>
+      <c r="N22">
+        <v>0.978217061918357</v>
+      </c>
+      <c r="O22">
+        <v>0.97457297049133296</v>
+      </c>
+      <c r="P22">
+        <v>0.97731877944771695</v>
+      </c>
+      <c r="Q22">
+        <v>0.98102258857979197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1146,8 +1657,32 @@
       <c r="I23">
         <v>0.99655385492676596</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0.97801592816125404</v>
+      </c>
+      <c r="K23">
+        <v>0.97522718869347802</v>
+      </c>
+      <c r="L23">
+        <v>0.97745316411982597</v>
+      </c>
+      <c r="M23">
+        <v>0.98667689167379702</v>
+      </c>
+      <c r="N23">
+        <v>0.97845675602941695</v>
+      </c>
+      <c r="O23">
+        <v>0.974328699427642</v>
+      </c>
+      <c r="P23">
+        <v>0.977632786714415</v>
+      </c>
+      <c r="Q23">
+        <v>0.98137316267186203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1175,8 +1710,32 @@
       <c r="I24">
         <v>0.996589015407504</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0.97994781164230305</v>
+      </c>
+      <c r="K24">
+        <v>0.974883527681913</v>
+      </c>
+      <c r="L24">
+        <v>0.97779772570588397</v>
+      </c>
+      <c r="M24">
+        <v>0.98720370435583604</v>
+      </c>
+      <c r="N24">
+        <v>0.98026707831438298</v>
+      </c>
+      <c r="O24">
+        <v>0.97451188118781795</v>
+      </c>
+      <c r="P24">
+        <v>0.977977348300473</v>
+      </c>
+      <c r="Q24">
+        <v>0.98173404391709695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1204,8 +1763,32 @@
       <c r="I25">
         <v>0.99663690782521697</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>0.98118333560664495</v>
+      </c>
+      <c r="K25">
+        <v>0.97437175670477305</v>
+      </c>
+      <c r="L25">
+        <v>0.97873406793164996</v>
+      </c>
+      <c r="M25">
+        <v>0.98764655200956797</v>
+      </c>
+      <c r="N25">
+        <v>0.98151008723518995</v>
+      </c>
+      <c r="O25">
+        <v>0.97361176776451197</v>
+      </c>
+      <c r="P25">
+        <v>0.97867995537753705</v>
+      </c>
+      <c r="Q25">
+        <v>0.98207471168973803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1233,8 +1816,32 @@
       <c r="I26">
         <v>0.99667237588449498</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0.98146467031902396</v>
+      </c>
+      <c r="K26">
+        <v>0.97468770367038005</v>
+      </c>
+      <c r="L26">
+        <v>0.97944692060956096</v>
+      </c>
+      <c r="M26">
+        <v>0.98805307921881602</v>
+      </c>
+      <c r="N26">
+        <v>0.98179019490552599</v>
+      </c>
+      <c r="O26">
+        <v>0.97392037701869905</v>
+      </c>
+      <c r="P26">
+        <v>0.97938268904873005</v>
+      </c>
+      <c r="Q26">
+        <v>0.98238513696614904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -1262,8 +1869,32 @@
       <c r="I27">
         <v>0.99674069513138597</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>0.98156843076755895</v>
+      </c>
+      <c r="K27">
+        <v>0.97442523937730297</v>
+      </c>
+      <c r="L27">
+        <v>0.97973262055976196</v>
+      </c>
+      <c r="M27">
+        <v>0.98846991358122904</v>
+      </c>
+      <c r="N27">
+        <v>0.98180250130775204</v>
+      </c>
+      <c r="O27">
+        <v>0.97367641651963699</v>
+      </c>
+      <c r="P27">
+        <v>0.98001376043273902</v>
+      </c>
+      <c r="Q27">
+        <v>0.98270797990804004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -1291,8 +1922,32 @@
       <c r="I28">
         <v>0.99677401014089095</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>0.982137040563132</v>
+      </c>
+      <c r="K28">
+        <v>0.97479055433445505</v>
+      </c>
+      <c r="L28">
+        <v>0.98018847485915395</v>
+      </c>
+      <c r="M28">
+        <v>0.98889705509680603</v>
+      </c>
+      <c r="N28">
+        <v>0.98226644441702604</v>
+      </c>
+      <c r="O28">
+        <v>0.97404997719931996</v>
+      </c>
+      <c r="P28">
+        <v>0.98045478388396601</v>
+      </c>
+      <c r="Q28">
+        <v>0.98304113000309501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -1320,8 +1975,32 @@
       <c r="I29">
         <v>0.99684117433220498</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>0.98260085112898399</v>
+      </c>
+      <c r="K29">
+        <v>0.97521307250434497</v>
+      </c>
+      <c r="L29">
+        <v>0.98038654324213204</v>
+      </c>
+      <c r="M29">
+        <v>0.98932749326533898</v>
+      </c>
+      <c r="N29">
+        <v>0.98271306821398996</v>
+      </c>
+      <c r="O29">
+        <v>0.97447249536920999</v>
+      </c>
+      <c r="P29">
+        <v>0.98067836656116603</v>
+      </c>
+      <c r="Q29">
+        <v>0.98342954607178301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -1349,8 +2028,32 @@
       <c r="I30">
         <v>0.99687803058504698</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0.98293659139824296</v>
+      </c>
+      <c r="K30">
+        <v>0.97597509833439799</v>
+      </c>
+      <c r="L30">
+        <v>0.98075183365844298</v>
+      </c>
+      <c r="M30">
+        <v>0.98969492170945295</v>
+      </c>
+      <c r="N30">
+        <v>0.98303177713968704</v>
+      </c>
+      <c r="O30">
+        <v>0.97523079099145105</v>
+      </c>
+      <c r="P30">
+        <v>0.98103531309158198</v>
+      </c>
+      <c r="Q30">
+        <v>0.98382483357591399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1378,8 +2081,32 @@
       <c r="I31">
         <v>0.99692976513167997</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>0.983099009433264</v>
+      </c>
+      <c r="K31">
+        <v>0.97685035560421296</v>
+      </c>
+      <c r="L31">
+        <v>0.98087881792271803</v>
+      </c>
+      <c r="M31">
+        <v>0.99006777888503095</v>
+      </c>
+      <c r="N31">
+        <v>0.98318893525448203</v>
+      </c>
+      <c r="O31">
+        <v>0.97544701216005303</v>
+      </c>
+      <c r="P31">
+        <v>0.98115751189188805</v>
+      </c>
+      <c r="Q31">
+        <v>0.984347324438541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1407,8 +2134,32 @@
       <c r="I32">
         <v>0.99696602340603302</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0.98331637709961095</v>
+      </c>
+      <c r="K32">
+        <v>0.97617940083461896</v>
+      </c>
+      <c r="L32">
+        <v>0.98149722480271995</v>
+      </c>
+      <c r="M32">
+        <v>0.99041561332686701</v>
+      </c>
+      <c r="N32">
+        <v>0.98339428608908497</v>
+      </c>
+      <c r="O32">
+        <v>0.97541178787312799</v>
+      </c>
+      <c r="P32">
+        <v>0.98177336652444003</v>
+      </c>
+      <c r="Q32">
+        <v>0.98466162716780903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1436,8 +2187,32 @@
       <c r="I33">
         <v>0.996997350607429</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>0.98330175893873395</v>
+      </c>
+      <c r="K33">
+        <v>0.97630592522985005</v>
+      </c>
+      <c r="L33">
+        <v>0.98148012801691598</v>
+      </c>
+      <c r="M33">
+        <v>0.99080564909105195</v>
+      </c>
+      <c r="N33">
+        <v>0.98337848996784605</v>
+      </c>
+      <c r="O33">
+        <v>0.97558706673888296</v>
+      </c>
+      <c r="P33">
+        <v>0.98175712866806597</v>
+      </c>
+      <c r="Q33">
+        <v>0.98498623705024302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1465,8 +2240,32 @@
       <c r="I34">
         <v>0.997031310892317</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>0.98332183334656298</v>
+      </c>
+      <c r="K34">
+        <v>0.97672856759126803</v>
+      </c>
+      <c r="L34">
+        <v>0.98224534341262004</v>
+      </c>
+      <c r="M34">
+        <v>0.99127434345584997</v>
+      </c>
+      <c r="N34">
+        <v>0.98339272365554897</v>
+      </c>
+      <c r="O34">
+        <v>0.97600661695435198</v>
+      </c>
+      <c r="P34">
+        <v>0.98252565707728701</v>
+      </c>
+      <c r="Q34">
+        <v>0.985341987772413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -1494,8 +2293,32 @@
       <c r="I35">
         <v>0.99706630189252099</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0.98378322569571097</v>
+      </c>
+      <c r="K35">
+        <v>0.97716021644128503</v>
+      </c>
+      <c r="L35">
+        <v>0.98338712908749104</v>
+      </c>
+      <c r="M35">
+        <v>0.99169507832463699</v>
+      </c>
+      <c r="N35">
+        <v>0.98350835191743602</v>
+      </c>
+      <c r="O35">
+        <v>0.97643021640856398</v>
+      </c>
+      <c r="P35">
+        <v>0.98367662102664299</v>
+      </c>
+      <c r="Q35">
+        <v>0.98570804564774706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -1523,8 +2346,32 @@
       <c r="I36">
         <v>0.997097027843315</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0.984299777674848</v>
+      </c>
+      <c r="K36">
+        <v>0.97719761668276695</v>
+      </c>
+      <c r="L36">
+        <v>0.98368192036094704</v>
+      </c>
+      <c r="M36">
+        <v>0.991916232202254</v>
+      </c>
+      <c r="N36">
+        <v>0.98397849716649199</v>
+      </c>
+      <c r="O36">
+        <v>0.976467616650045</v>
+      </c>
+      <c r="P36">
+        <v>0.98393249052648302</v>
+      </c>
+      <c r="Q36">
+        <v>0.98601942801695197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -1552,8 +2399,32 @@
       <c r="I37">
         <v>0.99712650384728096</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0.984826243410033</v>
+      </c>
+      <c r="K37">
+        <v>0.97709748930836604</v>
+      </c>
+      <c r="L37">
+        <v>0.98420931121146704</v>
+      </c>
+      <c r="M37">
+        <v>0.99213486655354099</v>
+      </c>
+      <c r="N37">
+        <v>0.98490447143043802</v>
+      </c>
+      <c r="O37">
+        <v>0.97685433865705196</v>
+      </c>
+      <c r="P37">
+        <v>0.98445988137700302</v>
+      </c>
+      <c r="Q37">
+        <v>0.98631762377433196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -1581,8 +2452,32 @@
       <c r="I38">
         <v>0.99718949155931003</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0.98481984568718495</v>
+      </c>
+      <c r="K38">
+        <v>0.97821879304871795</v>
+      </c>
+      <c r="L38">
+        <v>0.98430662382578604</v>
+      </c>
+      <c r="M38">
+        <v>0.99241112503017104</v>
+      </c>
+      <c r="N38">
+        <v>0.98489656853601604</v>
+      </c>
+      <c r="O38">
+        <v>0.977076146957092</v>
+      </c>
+      <c r="P38">
+        <v>0.98446616383226504</v>
+      </c>
+      <c r="Q38">
+        <v>0.98661581953171096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -1610,8 +2505,32 @@
       <c r="I39">
         <v>0.99722034185036401</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0.98482818957307905</v>
+      </c>
+      <c r="K39">
+        <v>0.97818493486860103</v>
+      </c>
+      <c r="L39">
+        <v>0.98434852322142696</v>
+      </c>
+      <c r="M39">
+        <v>0.99269769065996505</v>
+      </c>
+      <c r="N39">
+        <v>0.98493515491813999</v>
+      </c>
+      <c r="O39">
+        <v>0.97704228877697497</v>
+      </c>
+      <c r="P39">
+        <v>0.98452484098277904</v>
+      </c>
+      <c r="Q39">
+        <v>0.98692432244225503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -1639,8 +2558,32 @@
       <c r="I40">
         <v>0.99725222285673498</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0.98483897936278098</v>
+      </c>
+      <c r="K40">
+        <v>0.97904089485721402</v>
+      </c>
+      <c r="L40">
+        <v>0.985113485772104</v>
+      </c>
+      <c r="M40">
+        <v>0.99299456344292303</v>
+      </c>
+      <c r="N40">
+        <v>0.98531134146779598</v>
+      </c>
+      <c r="O40">
+        <v>0.97789824876558895</v>
+      </c>
+      <c r="P40">
+        <v>0.98458765735511899</v>
+      </c>
+      <c r="Q40">
+        <v>0.98724313250596296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -1668,8 +2611,32 @@
       <c r="I41">
         <v>0.99731538235465</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0.98492360436237103</v>
+      </c>
+      <c r="K41">
+        <v>0.97901507789262199</v>
+      </c>
+      <c r="L41">
+        <v>0.98498354201971206</v>
+      </c>
+      <c r="M41">
+        <v>0.99330174337904498</v>
+      </c>
+      <c r="N41">
+        <v>0.985390714727441</v>
+      </c>
+      <c r="O41">
+        <v>0.97786659108087004</v>
+      </c>
+      <c r="P41">
+        <v>0.98446085483035795</v>
+      </c>
+      <c r="Q41">
+        <v>0.98754819969878505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -1697,8 +2664,32 @@
       <c r="I42">
         <v>0.99734691978924905</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0.98503542879392403</v>
+      </c>
+      <c r="K42">
+        <v>0.97949063030695005</v>
+      </c>
+      <c r="L42">
+        <v>0.985134787221977</v>
+      </c>
+      <c r="M42">
+        <v>0.993619230468332</v>
+      </c>
+      <c r="N42">
+        <v>0.98551426150064803</v>
+      </c>
+      <c r="O42">
+        <v>0.97833802063393205</v>
+      </c>
+      <c r="P42">
+        <v>0.98458468791337495</v>
+      </c>
+      <c r="Q42">
+        <v>0.98786357404477199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -1726,8 +2717,32 @@
       <c r="I43">
         <v>0.99741119002049505</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0.985109746640351</v>
+      </c>
+      <c r="K43">
+        <v>0.97851554089648696</v>
+      </c>
+      <c r="L43">
+        <v>0.98513103247332501</v>
+      </c>
+      <c r="M43">
+        <v>0.993947024710783</v>
+      </c>
+      <c r="N43">
+        <v>0.98561766024350295</v>
+      </c>
+      <c r="O43">
+        <v>0.97828389989954001</v>
+      </c>
+      <c r="P43">
+        <v>0.98462373239119505</v>
+      </c>
+      <c r="Q43">
+        <v>0.98816666160976396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -1755,8 +2770,32 @@
       <c r="I44">
         <v>0.99744252949231105</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0.98634770266494898</v>
+      </c>
+      <c r="K44">
+        <v>0.97888215651820498</v>
+      </c>
+      <c r="L44">
+        <v>0.98521692541635997</v>
+      </c>
+      <c r="M44">
+        <v>0.99446101729187497</v>
+      </c>
+      <c r="N44">
+        <v>0.98685177971664495</v>
+      </c>
+      <c r="O44">
+        <v>0.97865051552125804</v>
+      </c>
+      <c r="P44">
+        <v>0.98472042330421194</v>
+      </c>
+      <c r="Q44">
+        <v>0.98848005632792102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -1784,8 +2823,32 @@
       <c r="I45">
         <v>0.99747489967944303</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0.98650187640755804</v>
+      </c>
+      <c r="K45">
+        <v>0.97892925039182999</v>
+      </c>
+      <c r="L45">
+        <v>0.98547405765401197</v>
+      </c>
+      <c r="M45">
+        <v>0.99484675286004698</v>
+      </c>
+      <c r="N45">
+        <v>0.98698353131098204</v>
+      </c>
+      <c r="O45">
+        <v>0.978711352265768</v>
+      </c>
+      <c r="P45">
+        <v>0.98501911954601296</v>
+      </c>
+      <c r="Q45">
+        <v>0.98880375819924204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -1813,8 +2876,32 @@
       <c r="I46">
         <v>0.997541231341322</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0.98653133359687895</v>
+      </c>
+      <c r="K46">
+        <v>0.97893410947832205</v>
+      </c>
+      <c r="L46">
+        <v>0.98518891762397398</v>
+      </c>
+      <c r="M46">
+        <v>0.99515648504361998</v>
+      </c>
+      <c r="N46">
+        <v>0.98701298850030295</v>
+      </c>
+      <c r="O46">
+        <v>0.97869962174383396</v>
+      </c>
+      <c r="P46">
+        <v>0.98507009087249497</v>
+      </c>
+      <c r="Q46">
+        <v>0.98912230649398003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -1842,8 +2929,32 @@
       <c r="I47">
         <v>0.99757581987173605</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0.98650112382177202</v>
+      </c>
+      <c r="K47">
+        <v>0.98121780650691703</v>
+      </c>
+      <c r="L47">
+        <v>0.98569555510340101</v>
+      </c>
+      <c r="M47">
+        <v>0.99531941986641803</v>
+      </c>
+      <c r="N47">
+        <v>0.986992153326407</v>
+      </c>
+      <c r="O47">
+        <v>0.98009282982071599</v>
+      </c>
+      <c r="P47">
+        <v>0.98516603738000597</v>
+      </c>
+      <c r="Q47">
+        <v>0.98946875698112302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -1871,8 +2982,32 @@
       <c r="I48">
         <v>0.99760528918274505</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0.98656100347348796</v>
+      </c>
+      <c r="K48">
+        <v>0.98105733394848504</v>
+      </c>
+      <c r="L48">
+        <v>0.98538517890867094</v>
+      </c>
+      <c r="M48">
+        <v>0.99546340916006804</v>
+      </c>
+      <c r="N48">
+        <v>0.98699843578166901</v>
+      </c>
+      <c r="O48">
+        <v>0.97980867142431205</v>
+      </c>
+      <c r="P48">
+        <v>0.98524689127038401</v>
+      </c>
+      <c r="Q48">
+        <v>0.98982551462143098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -1900,8 +3035,32 @@
       <c r="I49">
         <v>0.99774566539532195</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0.986692705986143</v>
+      </c>
+      <c r="K49">
+        <v>0.98009987304204405</v>
+      </c>
+      <c r="L49">
+        <v>0.98577303053802001</v>
+      </c>
+      <c r="M49">
+        <v>0.99554773148928799</v>
+      </c>
+      <c r="N49">
+        <v>0.98739375600692103</v>
+      </c>
+      <c r="O49">
+        <v>0.979749527997822</v>
+      </c>
+      <c r="P49">
+        <v>0.98562615360542805</v>
+      </c>
+      <c r="Q49">
+        <v>0.99127483272813899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -1929,8 +3088,32 @@
       <c r="I50">
         <v>0.99778959751624896</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0.98689031701708796</v>
+      </c>
+      <c r="K50">
+        <v>0.98010384865826505</v>
+      </c>
+      <c r="L50">
+        <v>0.98578513735284801</v>
+      </c>
+      <c r="M50">
+        <v>0.99561264201338295</v>
+      </c>
+      <c r="N50">
+        <v>0.98757093269770302</v>
+      </c>
+      <c r="O50">
+        <v>0.97983654981953805</v>
+      </c>
+      <c r="P50">
+        <v>0.98563698429653201</v>
+      </c>
+      <c r="Q50">
+        <v>0.99175970991833495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -1958,8 +3141,32 @@
       <c r="I51">
         <v>0.99787327598304398</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0.98696290064409298</v>
+      </c>
+      <c r="K51">
+        <v>0.98119361741810296</v>
+      </c>
+      <c r="L51">
+        <v>0.985856393543461</v>
+      </c>
+      <c r="M51">
+        <v>0.99599365121009997</v>
+      </c>
+      <c r="N51">
+        <v>0.98758089627909496</v>
+      </c>
+      <c r="O51">
+        <v>0.98119361741810296</v>
+      </c>
+      <c r="P51">
+        <v>0.985711578041503</v>
+      </c>
+      <c r="Q51">
+        <v>0.99237419546943095</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -1987,8 +3194,32 @@
       <c r="I52">
         <v>0.99787683864384202</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>0.98730652967819799</v>
+      </c>
+      <c r="K52">
+        <v>0.98091117688055995</v>
+      </c>
+      <c r="L52">
+        <v>0.98588684872697696</v>
+      </c>
+      <c r="M52">
+        <v>0.99605102769604803</v>
+      </c>
+      <c r="N52">
+        <v>0.98791993617595897</v>
+      </c>
+      <c r="O52">
+        <v>0.98126127651637396</v>
+      </c>
+      <c r="P52">
+        <v>0.98600766328656797</v>
+      </c>
+      <c r="Q52">
+        <v>0.99233803863055303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -2016,8 +3247,32 @@
       <c r="I53">
         <v>0.99794300595645402</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>0.98747486348598801</v>
+      </c>
+      <c r="K53">
+        <v>0.980867788673907</v>
+      </c>
+      <c r="L53">
+        <v>0.98602828577317603</v>
+      </c>
+      <c r="M53">
+        <v>0.99609019487807204</v>
+      </c>
+      <c r="N53">
+        <v>0.98808404895911905</v>
+      </c>
+      <c r="O53">
+        <v>0.98122682117579696</v>
+      </c>
+      <c r="P53">
+        <v>0.98615103905919499</v>
+      </c>
+      <c r="Q53">
+        <v>0.99247424029736697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -2045,13 +3300,41 @@
       <c r="I54">
         <v>0.99796599633674199</v>
       </c>
+      <c r="J54">
+        <v>0.98726403312209698</v>
+      </c>
+      <c r="K54">
+        <v>0.98156957491991104</v>
+      </c>
+      <c r="L54">
+        <v>0.98602467826956897</v>
+      </c>
+      <c r="M54">
+        <v>0.996151546980241</v>
+      </c>
+      <c r="N54">
+        <v>0.98845023102598195</v>
+      </c>
+      <c r="O54">
+        <v>0.98193204313952198</v>
+      </c>
+      <c r="P54">
+        <v>0.98619602242050497</v>
+      </c>
+      <c r="Q54">
+        <v>0.992773409508101</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
